--- a/data/trans_orig/P76_M_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CC3803-5E2C-499D-8B2E-CD21AB333878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF1EDF1-17DE-4516-A868-5086D460FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F92A54AE-1AC5-4CE5-AF4A-B390DD6EE208}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36457A0A-2AA3-4D33-A6BD-430D0A4E6227}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="458">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -98,1306 +98,1315 @@
     <t>60,08%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1812,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932B16C8-BDE1-4280-BB62-4833470F1079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24033DC-C475-4E7C-969A-C38BCF34D4F8}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2813,10 +2822,10 @@
         <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2825,13 +2834,13 @@
         <v>22575</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2840,13 +2849,13 @@
         <v>38910</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2870,7 @@
         <v>19201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>106</v>
@@ -2894,10 +2903,10 @@
         <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2921,13 @@
         <v>10523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2927,13 +2936,13 @@
         <v>16861</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -2942,13 +2951,13 @@
         <v>27383</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2972,13 @@
         <v>6761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2978,13 +2987,13 @@
         <v>1940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2996,10 +3005,10 @@
         <v>38</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3023,13 @@
         <v>3737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3029,13 +3038,13 @@
         <v>980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3044,13 +3053,13 @@
         <v>4717</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3115,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3127,13 @@
         <v>224816</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -3133,13 +3142,13 @@
         <v>236060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>432</v>
@@ -3148,13 +3157,13 @@
         <v>460876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3178,13 @@
         <v>278106</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -3184,13 +3193,13 @@
         <v>274505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>517</v>
@@ -3199,13 +3208,13 @@
         <v>552611</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3229,13 @@
         <v>18611</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -3235,13 +3244,13 @@
         <v>33247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -3250,13 +3259,13 @@
         <v>51858</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3280,13 @@
         <v>70671</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -3286,13 +3295,13 @@
         <v>58473</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>116</v>
@@ -3301,13 +3310,13 @@
         <v>129143</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3331,13 @@
         <v>36497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -3337,13 +3346,13 @@
         <v>35167</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3352,7 +3361,7 @@
         <v>71663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>178</v>
@@ -3391,10 +3400,10 @@
         <v>183</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -3403,13 +3412,13 @@
         <v>24016</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3433,13 @@
         <v>4096</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3445,7 +3454,7 @@
         <v>71</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3454,13 +3463,13 @@
         <v>4096</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3525,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3537,13 @@
         <v>68152</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>75</v>
@@ -3543,13 +3552,13 @@
         <v>78591</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>140</v>
@@ -3558,13 +3567,13 @@
         <v>146743</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3588,13 @@
         <v>105009</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H37" s="7">
         <v>103</v>
@@ -3594,13 +3603,13 @@
         <v>105781</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M37" s="7">
         <v>199</v>
@@ -3609,13 +3618,13 @@
         <v>210790</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3639,13 @@
         <v>10909</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -3645,13 +3654,13 @@
         <v>9850</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -3663,10 +3672,10 @@
         <v>218</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3690,13 @@
         <v>12036</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H39" s="7">
         <v>9</v>
@@ -3696,13 +3705,13 @@
         <v>9362</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M39" s="7">
         <v>19</v>
@@ -3711,13 +3720,13 @@
         <v>21398</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3741,13 @@
         <v>9872</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -3747,13 +3756,13 @@
         <v>7114</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3762,13 +3771,13 @@
         <v>16986</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3798,7 @@
         <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3804,7 +3813,7 @@
         <v>71</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3819,7 +3828,7 @@
         <v>71</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3843,13 @@
         <v>1062</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3849,13 +3858,13 @@
         <v>1889</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -3864,13 +3873,13 @@
         <v>2951</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3935,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3938,13 +3947,13 @@
         <v>183024</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H44" s="7">
         <v>161</v>
@@ -3953,13 +3962,13 @@
         <v>166303</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
         <v>333</v>
@@ -3968,13 +3977,13 @@
         <v>349327</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3998,13 @@
         <v>47111</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H45" s="7">
         <v>55</v>
@@ -4004,13 +4013,13 @@
         <v>57769</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M45" s="7">
         <v>102</v>
@@ -4019,13 +4028,13 @@
         <v>104880</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4049,13 @@
         <v>9560</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H46" s="7">
         <v>15</v>
@@ -4055,13 +4064,13 @@
         <v>15071</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -4070,13 +4079,13 @@
         <v>24630</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4100,13 @@
         <v>12585</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -4106,13 +4115,13 @@
         <v>23660</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4121,13 +4130,13 @@
         <v>36245</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4151,13 @@
         <v>7756</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -4157,13 +4166,13 @@
         <v>5676</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M48" s="7">
         <v>13</v>
@@ -4172,13 +4181,13 @@
         <v>13433</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,10 +4205,10 @@
         <v>68</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4208,13 +4217,13 @@
         <v>1740</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -4223,7 +4232,7 @@
         <v>4700</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>290</v>
@@ -4247,10 +4256,10 @@
         <v>292</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -4265,7 +4274,7 @@
         <v>66</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4277,7 +4286,7 @@
         <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>59</v>
@@ -4405,7 +4414,7 @@
         <v>307</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="H53" s="7">
         <v>113</v>
@@ -4414,13 +4423,13 @@
         <v>128255</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M53" s="7">
         <v>201</v>
@@ -4429,13 +4438,13 @@
         <v>220363</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4459,13 @@
         <v>20395</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -4465,13 +4474,13 @@
         <v>28544</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="M54" s="7">
         <v>47</v>
@@ -4516,13 +4525,13 @@
         <v>59960</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M55" s="7">
         <v>99</v>
@@ -4531,13 +4540,13 @@
         <v>108619</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4561,13 @@
         <v>47817</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H56" s="7">
         <v>45</v>
@@ -4567,13 +4576,13 @@
         <v>48296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M56" s="7">
         <v>88</v>
@@ -4582,13 +4591,13 @@
         <v>96113</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4612,13 @@
         <v>12337</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H57" s="7">
         <v>14</v>
@@ -4618,13 +4627,13 @@
         <v>15930</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M57" s="7">
         <v>25</v>
@@ -4633,13 +4642,13 @@
         <v>28267</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4663,13 @@
         <v>2211</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4669,13 +4678,13 @@
         <v>3654</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="M58" s="7">
         <v>5</v>
@@ -4684,13 +4693,13 @@
         <v>5865</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4755,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4758,13 +4767,13 @@
         <v>197738</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H60" s="7">
         <v>192</v>
@@ -4773,13 +4782,13 @@
         <v>206038</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M60" s="7">
         <v>370</v>
@@ -4788,13 +4797,13 @@
         <v>403776</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4818,13 @@
         <v>328745</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H61" s="7">
         <v>320</v>
@@ -4824,13 +4833,13 @@
         <v>349015</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M61" s="7">
         <v>622</v>
@@ -4839,13 +4848,13 @@
         <v>677760</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,10 +4869,10 @@
         <v>80814</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>372</v>
@@ -4875,13 +4884,13 @@
         <v>91085</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M62" s="7">
         <v>161</v>
@@ -4890,13 +4899,13 @@
         <v>171899</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4920,13 @@
         <v>69552</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H63" s="7">
         <v>80</v>
@@ -4926,13 +4935,13 @@
         <v>87843</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M63" s="7">
         <v>147</v>
@@ -4941,13 +4950,13 @@
         <v>157395</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4971,13 @@
         <v>32701</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>386</v>
+        <v>243</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H64" s="7">
         <v>24</v>
@@ -4977,13 +4986,13 @@
         <v>27537</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M64" s="7">
         <v>53</v>
@@ -4992,13 +5001,13 @@
         <v>60237</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>390</v>
+        <v>173</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5022,13 @@
         <v>16982</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H65" s="7">
         <v>14</v>
@@ -5031,10 +5040,10 @@
         <v>35</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M65" s="7">
         <v>28</v>
@@ -5043,13 +5052,13 @@
         <v>32185</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>399</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5073,13 @@
         <v>1986</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -5079,13 +5088,13 @@
         <v>2928</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M66" s="7">
         <v>5</v>
@@ -5094,13 +5103,13 @@
         <v>4914</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>242</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5177,13 @@
         <v>1567742</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H68" s="7">
         <v>1454</v>
@@ -5183,28 +5192,28 @@
         <v>1557630</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M68" s="7">
         <v>2914</v>
       </c>
       <c r="N68" s="7">
-        <v>3125373</v>
+        <v>3125372</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5228,13 @@
         <v>1033703</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H69" s="7">
         <v>1034</v>
@@ -5234,28 +5243,28 @@
         <v>1122318</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M69" s="7">
         <v>2010</v>
       </c>
       <c r="N69" s="7">
-        <v>2156022</v>
+        <v>2156021</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5279,13 @@
         <v>165266</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="H70" s="7">
         <v>193</v>
@@ -5285,13 +5294,13 @@
         <v>206631</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>120</v>
+        <v>429</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M70" s="7">
         <v>354</v>
@@ -5300,10 +5309,10 @@
         <v>371896</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>429</v>
+        <v>276</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>430</v>
+        <v>117</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>431</v>
@@ -5324,10 +5333,10 @@
         <v>322</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H71" s="7">
         <v>259</v>
@@ -5336,13 +5345,13 @@
         <v>282408</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M71" s="7">
         <v>488</v>
@@ -5351,13 +5360,13 @@
         <v>530162</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,10 +5381,10 @@
         <v>154839</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>439</v>
@@ -5387,7 +5396,7 @@
         <v>154611</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>440</v>
@@ -5405,10 +5414,10 @@
         <v>442</v>
       </c>
       <c r="P72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5447,13 @@
         <v>48387</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>279</v>
+        <v>446</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="M73" s="7">
         <v>95</v>
@@ -5453,13 +5462,13 @@
         <v>107976</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5483,13 @@
         <v>17091</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>69</v>
+        <v>451</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H74" s="7">
         <v>13</v>
@@ -5489,13 +5498,13 @@
         <v>13354</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M74" s="7">
         <v>29</v>
@@ -5507,10 +5516,10 @@
         <v>72</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>128</v>
+        <v>456</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>453</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,7 +5561,7 @@
         <v>6179</v>
       </c>
       <c r="N75" s="7">
-        <v>6631323</v>
+        <v>6631322</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>77</v>
@@ -5566,7 +5575,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_M_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF1EDF1-17DE-4516-A868-5086D460FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9B9F68-8E31-469A-B6C8-40FEF08EED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36457A0A-2AA3-4D33-A6BD-430D0A4E6227}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56E9AC97-F5B4-4083-8676-542234077ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="460">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -98,49 +98,49 @@
     <t>60,08%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -149,1264 +149,1270 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1821,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24033DC-C475-4E7C-969A-C38BCF34D4F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56607D23-A96E-4E65-90E0-A1B383EAC638}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,10 +2756,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2774,13 @@
         <v>46837</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -2783,13 +2789,13 @@
         <v>64581</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -2798,13 +2804,13 @@
         <v>111418</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,10 +2825,10 @@
         <v>16334</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>98</v>
@@ -2924,10 +2930,10 @@
         <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2936,13 +2942,13 @@
         <v>16861</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -2951,13 +2957,13 @@
         <v>27383</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2978,13 @@
         <v>6761</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3038,13 +3044,13 @@
         <v>980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3053,13 +3059,13 @@
         <v>4717</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3121,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3133,13 @@
         <v>224816</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -3142,13 +3148,13 @@
         <v>236060</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>432</v>
@@ -3157,13 +3163,13 @@
         <v>460876</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3184,13 @@
         <v>278106</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -3193,13 +3199,13 @@
         <v>274505</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>517</v>
@@ -3208,13 +3214,13 @@
         <v>552611</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3235,13 @@
         <v>18611</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -3244,10 +3250,10 @@
         <v>33247</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>159</v>
@@ -3361,13 +3367,13 @@
         <v>71663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3388,13 @@
         <v>12394</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -3397,13 +3403,13 @@
         <v>11622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -3412,13 +3418,13 @@
         <v>24016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3439,13 @@
         <v>4096</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3454,7 +3460,7 @@
         <v>71</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3463,13 +3469,13 @@
         <v>4096</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3531,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3537,13 +3543,13 @@
         <v>68152</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>75</v>
@@ -3552,13 +3558,13 @@
         <v>78591</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>140</v>
@@ -3567,13 +3573,13 @@
         <v>146743</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3594,13 @@
         <v>105009</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>103</v>
@@ -3603,13 +3609,13 @@
         <v>105781</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>199</v>
@@ -3618,13 +3624,13 @@
         <v>210790</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3645,13 @@
         <v>10909</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -3654,13 +3660,13 @@
         <v>9850</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -3669,13 +3675,13 @@
         <v>20759</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3696,13 @@
         <v>12036</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H39" s="7">
         <v>9</v>
@@ -3705,13 +3711,13 @@
         <v>9362</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M39" s="7">
         <v>19</v>
@@ -3720,13 +3726,13 @@
         <v>21398</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3747,13 @@
         <v>9872</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -3756,13 +3762,13 @@
         <v>7114</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>16</v>
@@ -3771,13 +3777,13 @@
         <v>16986</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3804,7 @@
         <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3813,7 +3819,7 @@
         <v>71</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3828,7 +3834,7 @@
         <v>71</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>1062</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3858,13 +3864,13 @@
         <v>1889</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -3873,13 +3879,13 @@
         <v>2951</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3941,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3947,13 +3953,13 @@
         <v>183024</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H44" s="7">
         <v>161</v>
@@ -3962,13 +3968,13 @@
         <v>166303</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M44" s="7">
         <v>333</v>
@@ -3977,13 +3983,13 @@
         <v>349327</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4004,13 @@
         <v>47111</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H45" s="7">
         <v>55</v>
@@ -4013,13 +4019,13 @@
         <v>57769</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M45" s="7">
         <v>102</v>
@@ -4028,13 +4034,13 @@
         <v>104880</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4055,13 @@
         <v>9560</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H46" s="7">
         <v>15</v>
@@ -4064,13 +4070,13 @@
         <v>15071</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -4079,13 +4085,13 @@
         <v>24630</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4106,13 @@
         <v>12585</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -4115,13 +4121,13 @@
         <v>23660</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4130,13 +4136,13 @@
         <v>36245</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4157,13 @@
         <v>7756</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -4166,13 +4172,13 @@
         <v>5676</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M48" s="7">
         <v>13</v>
@@ -4181,13 +4187,13 @@
         <v>13433</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,10 +4211,10 @@
         <v>68</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4217,13 +4223,13 @@
         <v>1740</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
@@ -4235,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4259,13 @@
         <v>4000</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>288</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -4268,13 +4274,13 @@
         <v>1989</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4286,7 +4292,7 @@
         <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>59</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4357,13 +4363,13 @@
         <v>414360</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H52" s="7">
         <v>358</v>
@@ -4372,13 +4378,13 @@
         <v>386221</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M52" s="7">
         <v>745</v>
@@ -4387,13 +4393,13 @@
         <v>800581</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4414,13 @@
         <v>92108</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H53" s="7">
         <v>113</v>
@@ -4423,13 +4429,13 @@
         <v>128255</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M53" s="7">
         <v>201</v>
@@ -4438,13 +4444,13 @@
         <v>220363</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4465,13 @@
         <v>20395</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H54" s="7">
         <v>27</v>
@@ -4474,13 +4480,13 @@
         <v>28544</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="M54" s="7">
         <v>47</v>
@@ -4489,13 +4495,13 @@
         <v>48939</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4516,13 @@
         <v>48659</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H55" s="7">
         <v>54</v>
@@ -4525,13 +4531,13 @@
         <v>59960</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M55" s="7">
         <v>99</v>
@@ -4540,13 +4546,13 @@
         <v>108619</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4567,13 @@
         <v>47817</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H56" s="7">
         <v>45</v>
@@ -4576,13 +4582,13 @@
         <v>48296</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M56" s="7">
         <v>88</v>
@@ -4591,13 +4597,13 @@
         <v>96113</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4618,13 @@
         <v>12337</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H57" s="7">
         <v>14</v>
@@ -4627,13 +4633,13 @@
         <v>15930</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M57" s="7">
         <v>25</v>
@@ -4642,13 +4648,13 @@
         <v>28267</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4669,13 @@
         <v>2211</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4678,13 +4684,13 @@
         <v>3654</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="M58" s="7">
         <v>5</v>
@@ -4693,13 +4699,13 @@
         <v>5865</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4747,7 @@
         <v>1210</v>
       </c>
       <c r="N59" s="7">
-        <v>1308746</v>
+        <v>1308747</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>77</v>
@@ -4755,7 +4761,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4767,13 +4773,13 @@
         <v>197738</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H60" s="7">
         <v>192</v>
@@ -4782,13 +4788,13 @@
         <v>206038</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M60" s="7">
         <v>370</v>
@@ -4797,13 +4803,13 @@
         <v>403776</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4824,13 @@
         <v>328745</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H61" s="7">
         <v>320</v>
@@ -4833,13 +4839,13 @@
         <v>349015</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M61" s="7">
         <v>622</v>
@@ -4848,13 +4854,13 @@
         <v>677760</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4875,13 @@
         <v>80814</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H62" s="7">
         <v>84</v>
@@ -4884,13 +4890,13 @@
         <v>91085</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M62" s="7">
         <v>161</v>
@@ -4899,13 +4905,13 @@
         <v>171899</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4926,13 @@
         <v>69552</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H63" s="7">
         <v>80</v>
@@ -4935,13 +4941,13 @@
         <v>87843</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M63" s="7">
         <v>147</v>
@@ -4950,13 +4956,13 @@
         <v>157395</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>32701</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H64" s="7">
         <v>24</v>
@@ -4986,13 +4992,13 @@
         <v>27537</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="L64" s="7" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="M64" s="7">
         <v>53</v>
@@ -5001,13 +5007,13 @@
         <v>60237</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>173</v>
+        <v>391</v>
       </c>
       <c r="P64" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5028,7 @@
         <v>16982</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>231</v>
+        <v>394</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>395</v>
@@ -5055,10 +5061,10 @@
         <v>399</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>400</v>
+        <v>188</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5079,13 @@
         <v>1986</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -5088,13 +5094,13 @@
         <v>2928</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M66" s="7">
         <v>5</v>
@@ -5103,13 +5109,13 @@
         <v>4914</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P66" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P66" s="7" t="s">
+      <c r="Q66" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5183,13 @@
         <v>1567742</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H68" s="7">
         <v>1454</v>
@@ -5192,13 +5198,13 @@
         <v>1557630</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M68" s="7">
         <v>2914</v>
@@ -5207,13 +5213,13 @@
         <v>3125372</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="Q68" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5234,13 @@
         <v>1033703</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H69" s="7">
         <v>1034</v>
@@ -5243,13 +5249,13 @@
         <v>1122318</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M69" s="7">
         <v>2010</v>
@@ -5258,13 +5264,13 @@
         <v>2156021</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="Q69" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5285,13 @@
         <v>165266</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H70" s="7">
         <v>193</v>
@@ -5297,7 +5303,7 @@
         <v>429</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>430</v>
@@ -5309,13 +5315,13 @@
         <v>371896</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>276</v>
+        <v>431</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>117</v>
+        <v>432</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5336,13 @@
         <v>247754</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H71" s="7">
         <v>259</v>
@@ -5348,10 +5354,10 @@
         <v>170</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M71" s="7">
         <v>488</v>
@@ -5360,13 +5366,13 @@
         <v>530162</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>437</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5387,13 @@
         <v>154839</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H72" s="7">
         <v>143</v>
@@ -5396,13 +5402,13 @@
         <v>154611</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M72" s="7">
         <v>289</v>
@@ -5411,13 +5417,13 @@
         <v>309450</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +5441,10 @@
         <v>62</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>444</v>
+        <v>38</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H73" s="7">
         <v>44</v>
@@ -5447,13 +5453,13 @@
         <v>48387</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="M73" s="7">
         <v>95</v>
@@ -5462,13 +5468,13 @@
         <v>107976</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5489,13 @@
         <v>17091</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H74" s="7">
         <v>13</v>
@@ -5498,13 +5504,13 @@
         <v>13354</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="M74" s="7">
         <v>29</v>
@@ -5516,10 +5522,10 @@
         <v>72</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>39</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5581,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
